--- a/datos/precios/Precio_Bolsa_Nacional_($kwh)_2007.xlsx
+++ b/datos/precios/Precio_Bolsa_Nacional_($kwh)_2007.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JetDrive/GitHub/ETVL-IPython/Taller/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="440" windowWidth="16140" windowHeight="10000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14244" windowHeight="7512"/>
   </bookViews>
   <sheets>
     <sheet name="Precio Bolsa Nacional 2007" sheetId="2" r:id="rId1"/>
@@ -17,9 +12,6 @@
   <calcPr calcId="145620" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t>Precio Bolsa Nacional ($/kWh) 2007</t>
   </si>
@@ -1313,6 +1305,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1605,24 +1600,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Y382"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:Y368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="A380" sqref="A380"/>
+      <selection activeCell="A369" sqref="A369:XFD382"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="25" width="11.5" style="1"/>
+    <col min="2" max="25" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1699,7 +1694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1776,7 +1771,7 @@
         <v>56.598942999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1853,7 +1848,7 @@
         <v>57.598942999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1930,7 +1925,7 @@
         <v>57.598942999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2007,7 +2002,7 @@
         <v>68.098943000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2084,7 +2079,7 @@
         <v>71.098943000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2161,7 +2156,7 @@
         <v>75.098943000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2238,7 +2233,7 @@
         <v>84.598943000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2315,7 +2310,7 @@
         <v>85.198943</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2392,7 +2387,7 @@
         <v>85.498942999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2469,7 +2464,7 @@
         <v>87.598943000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2546,7 +2541,7 @@
         <v>90.598943000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2623,7 +2618,7 @@
         <v>93.098943000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2700,7 +2695,7 @@
         <v>96.598943000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2777,7 +2772,7 @@
         <v>95.598943000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2854,7 +2849,7 @@
         <v>92.598943000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2931,7 +2926,7 @@
         <v>80.657943000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3008,7 +3003,7 @@
         <v>85.598943000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3085,7 +3080,7 @@
         <v>82.598943000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3162,7 +3157,7 @@
         <v>82.598943000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3239,7 +3234,7 @@
         <v>92.598943000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3316,7 +3311,7 @@
         <v>90.598943000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3393,7 +3388,7 @@
         <v>62.598942999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -3470,7 +3465,7 @@
         <v>89.598943000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -3547,7 +3542,7 @@
         <v>90.598943000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -3624,7 +3619,7 @@
         <v>78.598943000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -3701,7 +3696,7 @@
         <v>100.59894300000001</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -3778,7 +3773,7 @@
         <v>96.598943000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3855,7 +3850,7 @@
         <v>96.598943000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -3932,7 +3927,7 @@
         <v>96.598943000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -4009,7 +4004,7 @@
         <v>96.598943000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -4086,7 +4081,7 @@
         <v>94.598943000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -4163,7 +4158,7 @@
         <v>97.684394999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -4240,7 +4235,7 @@
         <v>99.684394999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -4317,7 +4312,7 @@
         <v>101.384395</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -4394,7 +4389,7 @@
         <v>102.18439499999999</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -4471,7 +4466,7 @@
         <v>102.18439499999999</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -4548,7 +4543,7 @@
         <v>98.584395000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -4625,7 +4620,7 @@
         <v>107.584395</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -4702,7 +4697,7 @@
         <v>106.68439499999999</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -4779,7 +4774,7 @@
         <v>106.68439499999999</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -4856,7 +4851,7 @@
         <v>106.48439500000001</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -4933,7 +4928,7 @@
         <v>106.48439500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -5010,7 +5005,7 @@
         <v>106.384395</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -5087,7 +5082,7 @@
         <v>104.68439499999999</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -5164,7 +5159,7 @@
         <v>104.18439499999999</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -5241,7 +5236,7 @@
         <v>99.684394999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -5318,7 +5313,7 @@
         <v>103.48439500000001</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -5395,7 +5390,7 @@
         <v>104.164395</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -5472,7 +5467,7 @@
         <v>104.16939499999999</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -5549,7 +5544,7 @@
         <v>104.164395</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -5626,7 +5621,7 @@
         <v>103.784395</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5703,7 +5698,7 @@
         <v>103.784395</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -5780,7 +5775,7 @@
         <v>103.68439499999999</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -5857,7 +5852,7 @@
         <v>103.784395</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -5934,7 +5929,7 @@
         <v>113.68439499999999</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -6011,7 +6006,7 @@
         <v>104.68439499999999</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -6088,7 +6083,7 @@
         <v>104.68439499999999</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -6165,7 +6160,7 @@
         <v>104.584395</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -6242,7 +6237,7 @@
         <v>103.685395</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -6319,7 +6314,7 @@
         <v>103.70050500000001</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -6396,7 +6391,7 @@
         <v>103.70050500000001</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -6473,7 +6468,7 @@
         <v>103.699505</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -6550,7 +6545,7 @@
         <v>103.799505</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -6627,7 +6622,7 @@
         <v>99.599504999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>90</v>
       </c>
@@ -6704,7 +6699,7 @@
         <v>99.599504999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -6781,7 +6776,7 @@
         <v>101.699505</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -6858,7 +6853,7 @@
         <v>103.199505</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -6935,7 +6930,7 @@
         <v>87.679505000000006</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -7012,7 +7007,7 @@
         <v>98.166505000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>95</v>
       </c>
@@ -7089,7 +7084,7 @@
         <v>104.699505</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -7166,7 +7161,7 @@
         <v>104.699505</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -7243,7 +7238,7 @@
         <v>59.393504999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -7320,7 +7315,7 @@
         <v>103.594505</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>99</v>
       </c>
@@ -7397,7 +7392,7 @@
         <v>102.699505</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -7474,7 +7469,7 @@
         <v>101.699505</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -7551,7 +7546,7 @@
         <v>102.666505</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -7628,7 +7623,7 @@
         <v>101.699505</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -7705,7 +7700,7 @@
         <v>102.199505</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -7782,7 +7777,7 @@
         <v>99.779505</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -7859,7 +7854,7 @@
         <v>97.199505000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -7936,7 +7931,7 @@
         <v>99.699505000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -8013,7 +8008,7 @@
         <v>98.199505000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -8090,7 +8085,7 @@
         <v>102.436505</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>109</v>
       </c>
@@ -8167,7 +8162,7 @@
         <v>100.699505</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>110</v>
       </c>
@@ -8244,7 +8239,7 @@
         <v>98.199505000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -8321,7 +8316,7 @@
         <v>57.699505000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -8398,7 +8393,7 @@
         <v>85.699505000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>113</v>
       </c>
@@ -8475,7 +8470,7 @@
         <v>91.699505000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>114</v>
       </c>
@@ -8552,7 +8547,7 @@
         <v>96.699505000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -8629,7 +8624,7 @@
         <v>92.699505000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -8706,7 +8701,7 @@
         <v>96.102011000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -8783,7 +8778,7 @@
         <v>97.102011000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -8860,7 +8855,7 @@
         <v>97.102011000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -8937,7 +8932,7 @@
         <v>95.102011000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>120</v>
       </c>
@@ -9014,7 +9009,7 @@
         <v>94.102011000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>121</v>
       </c>
@@ -9091,7 +9086,7 @@
         <v>89.102011000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -9168,7 +9163,7 @@
         <v>92.102011000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -9245,7 +9240,7 @@
         <v>83.102011000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -9322,7 +9317,7 @@
         <v>92.102011000000005</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -9399,7 +9394,7 @@
         <v>90.102011000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -9476,7 +9471,7 @@
         <v>92.602011000000005</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -9553,7 +9548,7 @@
         <v>92.602011000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -9630,7 +9625,7 @@
         <v>92.602011000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -9707,7 +9702,7 @@
         <v>92.402011000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -9784,7 +9779,7 @@
         <v>93.102011000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -9861,7 +9856,7 @@
         <v>94.102011000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>132</v>
       </c>
@@ -9938,7 +9933,7 @@
         <v>92.602011000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -10015,7 +10010,7 @@
         <v>92.102011000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>134</v>
       </c>
@@ -10092,7 +10087,7 @@
         <v>89.102011000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>135</v>
       </c>
@@ -10169,7 +10164,7 @@
         <v>91.112010999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -10246,7 +10241,7 @@
         <v>90.799010999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>137</v>
       </c>
@@ -10323,7 +10318,7 @@
         <v>89.101011</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -10400,7 +10395,7 @@
         <v>87.102011000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -10477,7 +10472,7 @@
         <v>92.402011000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>140</v>
       </c>
@@ -10554,7 +10549,7 @@
         <v>91.102011000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -10631,7 +10626,7 @@
         <v>87.102011000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -10708,7 +10703,7 @@
         <v>88.102011000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>143</v>
       </c>
@@ -10785,7 +10780,7 @@
         <v>87.102011000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -10862,7 +10857,7 @@
         <v>87.102011000000005</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>145</v>
       </c>
@@ -10939,7 +10934,7 @@
         <v>86.602011000000005</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>146</v>
       </c>
@@ -11016,7 +11011,7 @@
         <v>83.760824</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>147</v>
       </c>
@@ -11093,7 +11088,7 @@
         <v>85.860823999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>148</v>
       </c>
@@ -11170,7 +11165,7 @@
         <v>33.317824000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>149</v>
       </c>
@@ -11247,7 +11242,7 @@
         <v>83.860823999999994</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>150</v>
       </c>
@@ -11324,7 +11319,7 @@
         <v>82.860823999999994</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>151</v>
       </c>
@@ -11401,7 +11396,7 @@
         <v>79.860823999999994</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -11478,7 +11473,7 @@
         <v>68.860823999999994</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>153</v>
       </c>
@@ -11555,7 +11550,7 @@
         <v>76.860823999999994</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>154</v>
       </c>
@@ -11632,7 +11627,7 @@
         <v>79.360823999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>155</v>
       </c>
@@ -11709,7 +11704,7 @@
         <v>40.860824000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>156</v>
       </c>
@@ -11786,7 +11781,7 @@
         <v>76.860823999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>157</v>
       </c>
@@ -11863,7 +11858,7 @@
         <v>75.860823999999994</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>158</v>
       </c>
@@ -11940,7 +11935,7 @@
         <v>63.860824000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>159</v>
       </c>
@@ -12017,7 +12012,7 @@
         <v>63.860824000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>160</v>
       </c>
@@ -12094,7 +12089,7 @@
         <v>71.860823999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>161</v>
       </c>
@@ -12171,7 +12166,7 @@
         <v>70.860823999999994</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>162</v>
       </c>
@@ -12248,7 +12243,7 @@
         <v>74.860823999999994</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>163</v>
       </c>
@@ -12325,7 +12320,7 @@
         <v>78.860823999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>164</v>
       </c>
@@ -12402,7 +12397,7 @@
         <v>78.860823999999994</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>165</v>
       </c>
@@ -12479,7 +12474,7 @@
         <v>72.860823999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>166</v>
       </c>
@@ -12556,7 +12551,7 @@
         <v>72.960824000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -12633,7 +12628,7 @@
         <v>69.860823999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>168</v>
       </c>
@@ -12710,7 +12705,7 @@
         <v>31.949824</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>169</v>
       </c>
@@ -12787,7 +12782,7 @@
         <v>66.860823999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>170</v>
       </c>
@@ -12864,7 +12859,7 @@
         <v>66.860823999999994</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>171</v>
       </c>
@@ -12941,7 +12936,7 @@
         <v>64.860823999999994</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>172</v>
       </c>
@@ -13018,7 +13013,7 @@
         <v>57.860824000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>173</v>
       </c>
@@ -13095,7 +13090,7 @@
         <v>32.405824000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>174</v>
       </c>
@@ -13172,7 +13167,7 @@
         <v>32.404823999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>175</v>
       </c>
@@ -13249,7 +13244,7 @@
         <v>64.860823999999994</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>176</v>
       </c>
@@ -13326,7 +13321,7 @@
         <v>66.860823999999994</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>177</v>
       </c>
@@ -13403,7 +13398,7 @@
         <v>69.857995000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>178</v>
       </c>
@@ -13480,7 +13475,7 @@
         <v>69.357995000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>179</v>
       </c>
@@ -13557,7 +13552,7 @@
         <v>65.857995000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>180</v>
       </c>
@@ -13634,7 +13629,7 @@
         <v>66.857995000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -13711,7 +13706,7 @@
         <v>65.857995000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>182</v>
       </c>
@@ -13788,7 +13783,7 @@
         <v>61.857995000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>183</v>
       </c>
@@ -13865,7 +13860,7 @@
         <v>63.857995000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>184</v>
       </c>
@@ -13942,7 +13937,7 @@
         <v>63.857995000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>185</v>
       </c>
@@ -14019,7 +14014,7 @@
         <v>61.857995000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>186</v>
       </c>
@@ -14096,7 +14091,7 @@
         <v>61.856994999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>187</v>
       </c>
@@ -14173,7 +14168,7 @@
         <v>62.857995000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>188</v>
       </c>
@@ -14250,7 +14245,7 @@
         <v>60.757995000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>189</v>
       </c>
@@ -14327,7 +14322,7 @@
         <v>61.357995000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>190</v>
       </c>
@@ -14404,7 +14399,7 @@
         <v>64.857995000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>191</v>
       </c>
@@ -14481,7 +14476,7 @@
         <v>81.857995000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>192</v>
       </c>
@@ -14558,7 +14553,7 @@
         <v>82.357995000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>193</v>
       </c>
@@ -14635,7 +14630,7 @@
         <v>90.857995000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>194</v>
       </c>
@@ -14712,7 +14707,7 @@
         <v>80.289995000000005</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>195</v>
       </c>
@@ -14789,7 +14784,7 @@
         <v>76.544995</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>196</v>
       </c>
@@ -14866,7 +14861,7 @@
         <v>74.857995000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>197</v>
       </c>
@@ -14943,7 +14938,7 @@
         <v>71.857995000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>198</v>
       </c>
@@ -15020,7 +15015,7 @@
         <v>89.857995000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>199</v>
       </c>
@@ -15097,7 +15092,7 @@
         <v>88.857995000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>200</v>
       </c>
@@ -15174,7 +15169,7 @@
         <v>86.857995000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>201</v>
       </c>
@@ -15251,7 +15246,7 @@
         <v>86.957994999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>202</v>
       </c>
@@ -15328,7 +15323,7 @@
         <v>86.857995000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>203</v>
       </c>
@@ -15405,7 +15400,7 @@
         <v>76.677994999999996</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>204</v>
       </c>
@@ -15482,7 +15477,7 @@
         <v>73.857995000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -15559,7 +15554,7 @@
         <v>67.857995000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -15636,7 +15631,7 @@
         <v>67.857995000000003</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -15713,7 +15708,7 @@
         <v>65.839015000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -15790,7 +15785,7 @@
         <v>80.839015000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -15867,7 +15862,7 @@
         <v>85.739014999999995</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -15944,7 +15939,7 @@
         <v>75.739014999999995</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -16021,7 +16016,7 @@
         <v>80.739014999999995</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>212</v>
       </c>
@@ -16098,7 +16093,7 @@
         <v>66.839015000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>213</v>
       </c>
@@ -16175,7 +16170,7 @@
         <v>65.839015000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>214</v>
       </c>
@@ -16252,7 +16247,7 @@
         <v>64.839015000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>215</v>
       </c>
@@ -16329,7 +16324,7 @@
         <v>63.839015000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>216</v>
       </c>
@@ -16406,7 +16401,7 @@
         <v>63.839015000000003</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>217</v>
       </c>
@@ -16483,7 +16478,7 @@
         <v>61.839015000000003</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>218</v>
       </c>
@@ -16560,7 +16555,7 @@
         <v>64.939014999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>219</v>
       </c>
@@ -16637,7 +16632,7 @@
         <v>64.939014999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>220</v>
       </c>
@@ -16714,7 +16709,7 @@
         <v>71.829014999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>221</v>
       </c>
@@ -16791,7 +16786,7 @@
         <v>75.829014999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>222</v>
       </c>
@@ -16868,7 +16863,7 @@
         <v>76.939014999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>223</v>
       </c>
@@ -16945,7 +16940,7 @@
         <v>79.839015000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>224</v>
       </c>
@@ -17022,7 +17017,7 @@
         <v>79.839015000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>225</v>
       </c>
@@ -17099,7 +17094,7 @@
         <v>80.839015000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>226</v>
       </c>
@@ -17176,7 +17171,7 @@
         <v>82.839015000000003</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>227</v>
       </c>
@@ -17253,7 +17248,7 @@
         <v>86.339015000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>228</v>
       </c>
@@ -17330,7 +17325,7 @@
         <v>88.339015000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>229</v>
       </c>
@@ -17407,7 +17402,7 @@
         <v>89.839015000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>230</v>
       </c>
@@ -17484,7 +17479,7 @@
         <v>89.939014999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>231</v>
       </c>
@@ -17561,7 +17556,7 @@
         <v>89.839015000000003</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>232</v>
       </c>
@@ -17638,7 +17633,7 @@
         <v>89.839015000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>233</v>
       </c>
@@ -17715,7 +17710,7 @@
         <v>89.039015000000006</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>234</v>
       </c>
@@ -17792,7 +17787,7 @@
         <v>91.939014999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>235</v>
       </c>
@@ -17869,7 +17864,7 @@
         <v>91.839015000000003</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>236</v>
       </c>
@@ -17946,7 +17941,7 @@
         <v>88.717015000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>237</v>
       </c>
@@ -18023,7 +18018,7 @@
         <v>86.539015000000006</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>238</v>
       </c>
@@ -18100,7 +18095,7 @@
         <v>89.431014000000005</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>239</v>
       </c>
@@ -18177,7 +18172,7 @@
         <v>100.731014</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>240</v>
       </c>
@@ -18254,7 +18249,7 @@
         <v>101.681014</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>241</v>
       </c>
@@ -18331,7 +18326,7 @@
         <v>108.731014</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>242</v>
       </c>
@@ -18408,7 +18403,7 @@
         <v>110.731014</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>243</v>
       </c>
@@ -18485,7 +18480,7 @@
         <v>110.731014</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>244</v>
       </c>
@@ -18562,7 +18557,7 @@
         <v>110.831014</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>245</v>
       </c>
@@ -18639,7 +18634,7 @@
         <v>85.731014000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>246</v>
       </c>
@@ -18716,7 +18711,7 @@
         <v>98.731014000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>247</v>
       </c>
@@ -18793,7 +18788,7 @@
         <v>83.731014000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>248</v>
       </c>
@@ -18870,7 +18865,7 @@
         <v>100.63101399999999</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>249</v>
       </c>
@@ -18947,7 +18942,7 @@
         <v>86.711014000000006</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>250</v>
       </c>
@@ -19024,7 +19019,7 @@
         <v>73.215013999999996</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>251</v>
       </c>
@@ -19101,7 +19096,7 @@
         <v>73.215013999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>252</v>
       </c>
@@ -19178,7 +19173,7 @@
         <v>78.731014000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>253</v>
       </c>
@@ -19255,7 +19250,7 @@
         <v>70.731014000000002</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -19332,7 +19327,7 @@
         <v>59.731014000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>255</v>
       </c>
@@ -19409,7 +19404,7 @@
         <v>71.731014000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>256</v>
       </c>
@@ -19486,7 +19481,7 @@
         <v>72.731014000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>257</v>
       </c>
@@ -19563,7 +19558,7 @@
         <v>65.731014000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>258</v>
       </c>
@@ -19640,7 +19635,7 @@
         <v>68.231014000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>259</v>
       </c>
@@ -19717,7 +19712,7 @@
         <v>67.731014000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>260</v>
       </c>
@@ -19794,7 +19789,7 @@
         <v>69.731014000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>261</v>
       </c>
@@ -19871,7 +19866,7 @@
         <v>68.731014000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>262</v>
       </c>
@@ -19948,7 +19943,7 @@
         <v>68.731014000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>263</v>
       </c>
@@ -20025,7 +20020,7 @@
         <v>62.731014000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>264</v>
       </c>
@@ -20102,7 +20097,7 @@
         <v>62.731014000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>265</v>
       </c>
@@ -20179,7 +20174,7 @@
         <v>61.631014</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>266</v>
       </c>
@@ -20256,7 +20251,7 @@
         <v>63.731014000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>267</v>
       </c>
@@ -20333,7 +20328,7 @@
         <v>60.731014000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>268</v>
       </c>
@@ -20410,7 +20405,7 @@
         <v>60.731014000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>269</v>
       </c>
@@ -20487,7 +20482,7 @@
         <v>71.554180000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>270</v>
       </c>
@@ -20564,7 +20559,7 @@
         <v>57.554180000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>271</v>
       </c>
@@ -20641,7 +20636,7 @@
         <v>57.554180000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>272</v>
       </c>
@@ -20718,7 +20713,7 @@
         <v>57.554180000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>273</v>
       </c>
@@ -20795,7 +20790,7 @@
         <v>58.654179999999997</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>274</v>
       </c>
@@ -20872,7 +20867,7 @@
         <v>70.654179999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>275</v>
       </c>
@@ -20949,7 +20944,7 @@
         <v>72.604179999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>276</v>
       </c>
@@ -21026,7 +21021,7 @@
         <v>75.654179999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>277</v>
       </c>
@@ -21103,7 +21098,7 @@
         <v>75.654179999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>278</v>
       </c>
@@ -21180,7 +21175,7 @@
         <v>75.654179999999997</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>279</v>
       </c>
@@ -21257,7 +21252,7 @@
         <v>71.454179999999994</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>280</v>
       </c>
@@ -21334,7 +21329,7 @@
         <v>71.654179999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>281</v>
       </c>
@@ -21411,7 +21406,7 @@
         <v>71.654179999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>282</v>
       </c>
@@ -21488,7 +21483,7 @@
         <v>68.654179999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>283</v>
       </c>
@@ -21565,7 +21560,7 @@
         <v>49.654179999999997</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>284</v>
       </c>
@@ -21642,7 +21637,7 @@
         <v>69.654179999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>285</v>
       </c>
@@ -21719,7 +21714,7 @@
         <v>69.654179999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>286</v>
       </c>
@@ -21796,7 +21791,7 @@
         <v>70.154179999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>287</v>
       </c>
@@ -21873,7 +21868,7 @@
         <v>68.654179999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>288</v>
       </c>
@@ -21950,7 +21945,7 @@
         <v>70.654179999999997</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>289</v>
       </c>
@@ -22027,7 +22022,7 @@
         <v>68.554180000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>290</v>
       </c>
@@ -22104,7 +22099,7 @@
         <v>67.654179999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>291</v>
       </c>
@@ -22181,7 +22176,7 @@
         <v>68.654179999999997</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>292</v>
       </c>
@@ -22258,7 +22253,7 @@
         <v>63.654179999999997</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>293</v>
       </c>
@@ -22335,7 +22330,7 @@
         <v>31.013179999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>294</v>
       </c>
@@ -22412,7 +22407,7 @@
         <v>65.654179999999997</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>295</v>
       </c>
@@ -22489,7 +22484,7 @@
         <v>69.654179999999997</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>296</v>
       </c>
@@ -22566,7 +22561,7 @@
         <v>67.654179999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>297</v>
       </c>
@@ -22643,7 +22638,7 @@
         <v>66.654179999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>298</v>
       </c>
@@ -22720,7 +22715,7 @@
         <v>66.604179999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>299</v>
       </c>
@@ -22797,7 +22792,7 @@
         <v>68.439436999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>300</v>
       </c>
@@ -22874,7 +22869,7 @@
         <v>74.939436999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>301</v>
       </c>
@@ -22951,7 +22946,7 @@
         <v>80.439436999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>302</v>
       </c>
@@ -23028,7 +23023,7 @@
         <v>83.839437000000004</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>303</v>
       </c>
@@ -23105,7 +23100,7 @@
         <v>105.939437</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>304</v>
       </c>
@@ -23182,7 +23177,7 @@
         <v>106.939437</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>305</v>
       </c>
@@ -23259,7 +23254,7 @@
         <v>32.108437000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>306</v>
       </c>
@@ -23336,7 +23331,7 @@
         <v>102.939437</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>307</v>
       </c>
@@ -23413,7 +23408,7 @@
         <v>93.939436999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>308</v>
       </c>
@@ -23490,7 +23485,7 @@
         <v>93.939436999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>309</v>
       </c>
@@ -23567,7 +23562,7 @@
         <v>66.939436999999998</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>310</v>
       </c>
@@ -23644,7 +23639,7 @@
         <v>92.939436999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>311</v>
       </c>
@@ -23721,7 +23716,7 @@
         <v>81.939436999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>312</v>
       </c>
@@ -23798,7 +23793,7 @@
         <v>81.939436999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>313</v>
       </c>
@@ -23875,7 +23870,7 @@
         <v>80.939436999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>314</v>
       </c>
@@ -23952,7 +23947,7 @@
         <v>71.974436999999995</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>315</v>
       </c>
@@ -24029,7 +24024,7 @@
         <v>68.939436999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>316</v>
       </c>
@@ -24106,7 +24101,7 @@
         <v>81.039437000000007</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>317</v>
       </c>
@@ -24183,7 +24178,7 @@
         <v>76.939436999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>318</v>
       </c>
@@ -24260,7 +24255,7 @@
         <v>71.939436999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>319</v>
       </c>
@@ -24337,7 +24332,7 @@
         <v>71.939436999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>320</v>
       </c>
@@ -24414,7 +24409,7 @@
         <v>68.939436999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>321</v>
       </c>
@@ -24491,7 +24486,7 @@
         <v>65.939436999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>322</v>
       </c>
@@ -24568,7 +24563,7 @@
         <v>65.939436999999998</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>323</v>
       </c>
@@ -24645,7 +24640,7 @@
         <v>63.939436999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>324</v>
       </c>
@@ -24722,7 +24717,7 @@
         <v>67.939436999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>325</v>
       </c>
@@ -24799,7 +24794,7 @@
         <v>65.939436999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>326</v>
       </c>
@@ -24876,7 +24871,7 @@
         <v>56.939436999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>327</v>
       </c>
@@ -24953,7 +24948,7 @@
         <v>57.039437</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>328</v>
       </c>
@@ -25030,7 +25025,7 @@
         <v>48.939436999999998</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>329</v>
       </c>
@@ -25107,7 +25102,7 @@
         <v>40.939436999999998</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>330</v>
       </c>
@@ -25184,7 +25179,7 @@
         <v>46.703879999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>331</v>
       </c>
@@ -25261,7 +25256,7 @@
         <v>49.703879999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>332</v>
       </c>
@@ -25338,7 +25333,7 @@
         <v>49.703879999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>333</v>
       </c>
@@ -25415,7 +25410,7 @@
         <v>46.703879999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>334</v>
       </c>
@@ -25492,7 +25487,7 @@
         <v>46.703879999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>335</v>
       </c>
@@ -25569,7 +25564,7 @@
         <v>41.603879999999997</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>336</v>
       </c>
@@ -25646,7 +25641,7 @@
         <v>46.703879999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>337</v>
       </c>
@@ -25723,7 +25718,7 @@
         <v>45.703879999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>338</v>
       </c>
@@ -25800,7 +25795,7 @@
         <v>42.203879999999998</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>339</v>
       </c>
@@ -25877,7 +25872,7 @@
         <v>41.703879999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>340</v>
       </c>
@@ -25954,7 +25949,7 @@
         <v>41.69388</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>341</v>
       </c>
@@ -26031,7 +26026,7 @@
         <v>39.703879999999998</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>342</v>
       </c>
@@ -26108,7 +26103,7 @@
         <v>46.703879999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>343</v>
       </c>
@@ -26185,7 +26180,7 @@
         <v>46.703879999999998</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>344</v>
       </c>
@@ -26262,7 +26257,7 @@
         <v>46.703879999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>345</v>
       </c>
@@ -26339,7 +26334,7 @@
         <v>46.703879999999998</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>346</v>
       </c>
@@ -26416,7 +26411,7 @@
         <v>58.703879999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>347</v>
       </c>
@@ -26493,7 +26488,7 @@
         <v>54.203879999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>348</v>
       </c>
@@ -26570,7 +26565,7 @@
         <v>48.692880000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>349</v>
       </c>
@@ -26647,7 +26642,7 @@
         <v>48.203879999999998</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>350</v>
       </c>
@@ -26724,7 +26719,7 @@
         <v>48.203879999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>351</v>
       </c>
@@ -26801,7 +26796,7 @@
         <v>57.703879999999998</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>352</v>
       </c>
@@ -26878,7 +26873,7 @@
         <v>60.203879999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>353</v>
       </c>
@@ -26955,7 +26950,7 @@
         <v>59.603879999999997</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>354</v>
       </c>
@@ -27032,7 +27027,7 @@
         <v>51.722880000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>355</v>
       </c>
@@ -27109,7 +27104,7 @@
         <v>66.703879999999998</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>356</v>
       </c>
@@ -27186,7 +27181,7 @@
         <v>73.703879999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>357</v>
       </c>
@@ -27263,7 +27258,7 @@
         <v>79.703879999999998</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>358</v>
       </c>
@@ -27340,7 +27335,7 @@
         <v>79.703879999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>359</v>
       </c>
@@ -27417,7 +27412,7 @@
         <v>79.703879999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>360</v>
       </c>
@@ -27494,7 +27489,7 @@
         <v>77.994521000000006</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>361</v>
       </c>
@@ -27571,7 +27566,7 @@
         <v>70.002521000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>362</v>
       </c>
@@ -27648,7 +27643,7 @@
         <v>73.497521000000006</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>363</v>
       </c>
@@ -27725,7 +27720,7 @@
         <v>78.492520999999996</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>364</v>
       </c>
@@ -27802,7 +27797,7 @@
         <v>78.897520999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>365</v>
       </c>
@@ -27879,7 +27874,7 @@
         <v>82.497521000000006</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>366</v>
       </c>
@@ -27956,7 +27951,7 @@
         <v>84.992520999999996</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>367</v>
       </c>
@@ -28033,7 +28028,7 @@
         <v>84.951521</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>368</v>
       </c>
@@ -28110,7 +28105,7 @@
         <v>86.399520999999993</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>369</v>
       </c>
@@ -28187,7 +28182,7 @@
         <v>87.343520999999996</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>370</v>
       </c>
@@ -28264,7 +28259,7 @@
         <v>87.492520999999996</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>371</v>
       </c>
@@ -28341,7 +28336,7 @@
         <v>87.492520999999996</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>372</v>
       </c>
@@ -28418,7 +28413,7 @@
         <v>87.492520999999996</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>373</v>
       </c>
@@ -28495,7 +28490,7 @@
         <v>88.550521000000003</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>374</v>
       </c>
@@ -28572,7 +28567,7 @@
         <v>91.992520999999996</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>375</v>
       </c>
@@ -28649,7 +28644,7 @@
         <v>94.492520999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>376</v>
       </c>
@@ -28726,7 +28721,7 @@
         <v>94.392521000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>377</v>
       </c>
@@ -28803,7 +28798,7 @@
         <v>90.493521000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>378</v>
       </c>
@@ -28880,7 +28875,7 @@
         <v>94.247521000000006</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>379</v>
       </c>
@@ -28957,7 +28952,7 @@
         <v>61.492521000000004</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>380</v>
       </c>
@@ -29034,7 +29029,7 @@
         <v>87.492520999999996</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>381</v>
       </c>
@@ -29111,7 +29106,7 @@
         <v>89.502521000000002</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>382</v>
       </c>
@@ -29188,7 +29183,7 @@
         <v>90.492520999999996</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>383</v>
       </c>
@@ -29265,7 +29260,7 @@
         <v>91.491521000000006</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>384</v>
       </c>
@@ -29342,7 +29337,7 @@
         <v>85.492520999999996</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>385</v>
       </c>
@@ -29419,7 +29414,7 @@
         <v>75.459520999999995</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>386</v>
       </c>
@@ -29496,7 +29491,7 @@
         <v>70.493521000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>387</v>
       </c>
@@ -29573,7 +29568,7 @@
         <v>71.492520999999996</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>388</v>
       </c>
@@ -29650,7 +29645,7 @@
         <v>68.492520999999996</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>389</v>
       </c>
@@ -29727,7 +29722,7 @@
         <v>68.491521000000006</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>390</v>
       </c>
@@ -29802,1075 +29797,6 @@
       </c>
       <c r="Y368" s="1">
         <v>67.987521000000001</v>
-      </c>
-    </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A369" t="s">
-        <v>28</v>
-      </c>
-      <c r="B369" s="1">
-        <v>57.598942999999998</v>
-      </c>
-      <c r="C369" s="1">
-        <v>57.598942999999998</v>
-      </c>
-      <c r="D369" s="1">
-        <v>57.598942999999998</v>
-      </c>
-      <c r="E369" s="1">
-        <v>57.598942999999998</v>
-      </c>
-      <c r="F369" s="1">
-        <v>57.598942999999998</v>
-      </c>
-      <c r="G369" s="1">
-        <v>57.598942999999998</v>
-      </c>
-      <c r="H369" s="1">
-        <v>57.598942999999998</v>
-      </c>
-      <c r="I369" s="1">
-        <v>57.598942999999998</v>
-      </c>
-      <c r="J369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="K369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="L369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="M369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="N369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="O369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="P369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="Q369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="R369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="S369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="T369" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="U369" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="V369" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="W369" s="1">
-        <v>69.598943000000006</v>
-      </c>
-      <c r="X369" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="Y369" s="1">
-        <v>57.598942999999998</v>
-      </c>
-    </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A370" t="s">
-        <v>29</v>
-      </c>
-      <c r="B370" s="1">
-        <v>60.598942999999998</v>
-      </c>
-      <c r="C370" s="1">
-        <v>60.598942999999998</v>
-      </c>
-      <c r="D370" s="1">
-        <v>60.598942999999998</v>
-      </c>
-      <c r="E370" s="1">
-        <v>60.598942999999998</v>
-      </c>
-      <c r="F370" s="1">
-        <v>60.598942999999998</v>
-      </c>
-      <c r="G370" s="1">
-        <v>60.598942999999998</v>
-      </c>
-      <c r="H370" s="1">
-        <v>68.098943000000006</v>
-      </c>
-      <c r="I370" s="1">
-        <v>68.098943000000006</v>
-      </c>
-      <c r="J370" s="1">
-        <v>68.098943000000006</v>
-      </c>
-      <c r="K370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="L370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="M370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="N370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="O370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="P370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="Q370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="R370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="S370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="T370" s="1">
-        <v>72.598943000000006</v>
-      </c>
-      <c r="U370" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="V370" s="1">
-        <v>72.598943000000006</v>
-      </c>
-      <c r="W370" s="1">
-        <v>71.598943000000006</v>
-      </c>
-      <c r="X370" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="Y370" s="1">
-        <v>68.098943000000006</v>
-      </c>
-    </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A371" t="s">
-        <v>30</v>
-      </c>
-      <c r="B371" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="C371" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="D371" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="E371" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="F371" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="G371" s="1">
-        <v>70.598943000000006</v>
-      </c>
-      <c r="H371" s="1">
-        <v>71.098943000000006</v>
-      </c>
-      <c r="I371" s="1">
-        <v>71.098943000000006</v>
-      </c>
-      <c r="J371" s="1">
-        <v>71.098943000000006</v>
-      </c>
-      <c r="K371" s="1">
-        <v>71.588943</v>
-      </c>
-      <c r="L371" s="1">
-        <v>71.588943</v>
-      </c>
-      <c r="M371" s="1">
-        <v>71.598943000000006</v>
-      </c>
-      <c r="N371" s="1">
-        <v>71.588943</v>
-      </c>
-      <c r="O371" s="1">
-        <v>71.588943</v>
-      </c>
-      <c r="P371" s="1">
-        <v>71.588943</v>
-      </c>
-      <c r="Q371" s="1">
-        <v>71.588943</v>
-      </c>
-      <c r="R371" s="1">
-        <v>71.588943</v>
-      </c>
-      <c r="S371" s="1">
-        <v>71.588943</v>
-      </c>
-      <c r="T371" s="1">
-        <v>73.098943000000006</v>
-      </c>
-      <c r="U371" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="V371" s="1">
-        <v>73.098943000000006</v>
-      </c>
-      <c r="W371" s="1">
-        <v>71.598943000000006</v>
-      </c>
-      <c r="X371" s="1">
-        <v>71.588943</v>
-      </c>
-      <c r="Y371" s="1">
-        <v>71.098943000000006</v>
-      </c>
-    </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A372" t="s">
-        <v>31</v>
-      </c>
-      <c r="B372" s="1">
-        <v>74.588943</v>
-      </c>
-      <c r="C372" s="1">
-        <v>74.588943</v>
-      </c>
-      <c r="D372" s="1">
-        <v>74.588943</v>
-      </c>
-      <c r="E372" s="1">
-        <v>73.598943000000006</v>
-      </c>
-      <c r="F372" s="1">
-        <v>74.588943</v>
-      </c>
-      <c r="G372" s="1">
-        <v>74.588943</v>
-      </c>
-      <c r="H372" s="1">
-        <v>74.588943</v>
-      </c>
-      <c r="I372" s="1">
-        <v>75.098943000000006</v>
-      </c>
-      <c r="J372" s="1">
-        <v>75.098943000000006</v>
-      </c>
-      <c r="K372" s="1">
-        <v>78.598943000000006</v>
-      </c>
-      <c r="L372" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="M372" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="N372" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="O372" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="P372" s="1">
-        <v>78.598943000000006</v>
-      </c>
-      <c r="Q372" s="1">
-        <v>75.098943000000006</v>
-      </c>
-      <c r="R372" s="1">
-        <v>75.098943000000006</v>
-      </c>
-      <c r="S372" s="1">
-        <v>78.598943000000006</v>
-      </c>
-      <c r="T372" s="1">
-        <v>81.598943000000006</v>
-      </c>
-      <c r="U372" s="1">
-        <v>81.598943000000006</v>
-      </c>
-      <c r="V372" s="1">
-        <v>81.598943000000006</v>
-      </c>
-      <c r="W372" s="1">
-        <v>81.598943000000006</v>
-      </c>
-      <c r="X372" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="Y372" s="1">
-        <v>75.098943000000006</v>
-      </c>
-    </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A373" t="s">
-        <v>32</v>
-      </c>
-      <c r="B373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="C373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="D373" s="1">
-        <v>81.578942999999995</v>
-      </c>
-      <c r="E373" s="1">
-        <v>81.578942999999995</v>
-      </c>
-      <c r="F373" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="G373" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="H373" s="1">
-        <v>81.578942999999995</v>
-      </c>
-      <c r="I373" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="J373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="K373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="L373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="M373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="N373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="O373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="P373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="Q373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="R373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="S373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="T373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="U373" s="1">
-        <v>85.098943000000006</v>
-      </c>
-      <c r="V373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="W373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="X373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="Y373" s="1">
-        <v>84.598943000000006</v>
-      </c>
-    </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A374" t="s">
-        <v>33</v>
-      </c>
-      <c r="B374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="C374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="D374" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="E374" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="F374" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="G374" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="H374" s="1">
-        <v>84.598943000000006</v>
-      </c>
-      <c r="I374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="J374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="K374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="L374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="M374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="N374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="O374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="P374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="Q374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="R374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="S374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="T374" s="1">
-        <v>85.498942999999997</v>
-      </c>
-      <c r="U374" s="1">
-        <v>85.598943000000006</v>
-      </c>
-      <c r="V374" s="1">
-        <v>85.498942999999997</v>
-      </c>
-      <c r="W374" s="1">
-        <v>85.498942999999997</v>
-      </c>
-      <c r="X374" s="1">
-        <v>85.198943</v>
-      </c>
-      <c r="Y374" s="1">
-        <v>85.198943</v>
-      </c>
-    </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A375" t="s">
-        <v>34</v>
-      </c>
-      <c r="B375" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="C375" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="D375" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="E375" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="F375" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="G375" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="H375" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="I375" s="1">
-        <v>85.498942999999997</v>
-      </c>
-      <c r="J375" s="1">
-        <v>85.498942999999997</v>
-      </c>
-      <c r="K375" s="1">
-        <v>85.498942999999997</v>
-      </c>
-      <c r="L375" s="1">
-        <v>85.498942999999997</v>
-      </c>
-      <c r="M375" s="1">
-        <v>85.698943</v>
-      </c>
-      <c r="N375" s="1">
-        <v>85.698943</v>
-      </c>
-      <c r="O375" s="1">
-        <v>85.498942999999997</v>
-      </c>
-      <c r="P375" s="1">
-        <v>85.698943</v>
-      </c>
-      <c r="Q375" s="1">
-        <v>85.698943</v>
-      </c>
-      <c r="R375" s="1">
-        <v>85.698943</v>
-      </c>
-      <c r="S375" s="1">
-        <v>86.598943000000006</v>
-      </c>
-      <c r="T375" s="1">
-        <v>90.598943000000006</v>
-      </c>
-      <c r="U375" s="1">
-        <v>90.598943000000006</v>
-      </c>
-      <c r="V375" s="1">
-        <v>90.098943000000006</v>
-      </c>
-      <c r="W375" s="1">
-        <v>86.598943000000006</v>
-      </c>
-      <c r="X375" s="1">
-        <v>85.498942999999997</v>
-      </c>
-      <c r="Y375" s="1">
-        <v>85.498942999999997</v>
-      </c>
-    </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A376" t="s">
-        <v>35</v>
-      </c>
-      <c r="B376" s="1">
-        <v>85.698943</v>
-      </c>
-      <c r="C376" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="D376" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="E376" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="F376" s="1">
-        <v>82.598943000000006</v>
-      </c>
-      <c r="G376" s="1">
-        <v>86.598943000000006</v>
-      </c>
-      <c r="H376" s="1">
-        <v>86.598943000000006</v>
-      </c>
-      <c r="I376" s="1">
-        <v>87.598943000000006</v>
-      </c>
-      <c r="J376" s="1">
-        <v>87.598943000000006</v>
-      </c>
-      <c r="K376" s="1">
-        <v>87.598943000000006</v>
-      </c>
-      <c r="L376" s="1">
-        <v>87.598943000000006</v>
-      </c>
-      <c r="M376" s="1">
-        <v>91.598943000000006</v>
-      </c>
-      <c r="N376" s="1">
-        <v>91.598943000000006</v>
-      </c>
-      <c r="O376" s="1">
-        <v>87.598943000000006</v>
-      </c>
-      <c r="P376" s="1">
-        <v>91.598943000000006</v>
-      </c>
-      <c r="Q376" s="1">
-        <v>91.598943000000006</v>
-      </c>
-      <c r="R376" s="1">
-        <v>91.598943000000006</v>
-      </c>
-      <c r="S376" s="1">
-        <v>91.598943000000006</v>
-      </c>
-      <c r="T376" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="U376" s="1">
-        <v>100.59894300000001</v>
-      </c>
-      <c r="V376" s="1">
-        <v>91.598943000000006</v>
-      </c>
-      <c r="W376" s="1">
-        <v>91.598943000000006</v>
-      </c>
-      <c r="X376" s="1">
-        <v>87.598943000000006</v>
-      </c>
-      <c r="Y376" s="1">
-        <v>87.598943000000006</v>
-      </c>
-    </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A377" t="s">
-        <v>36</v>
-      </c>
-      <c r="C377" s="1">
-        <v>88.998942999999997</v>
-      </c>
-      <c r="D377" s="1">
-        <v>88.998942999999997</v>
-      </c>
-      <c r="E377" s="1">
-        <v>88.998942999999997</v>
-      </c>
-      <c r="F377" s="1">
-        <v>88.998942999999997</v>
-      </c>
-      <c r="G377" s="1">
-        <v>88.998942999999997</v>
-      </c>
-      <c r="H377" s="1">
-        <v>88.998942999999997</v>
-      </c>
-      <c r="I377" s="1">
-        <v>90.598943000000006</v>
-      </c>
-      <c r="J377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="K377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="L377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="M377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="N377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="O377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="P377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="Q377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="R377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="S377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="T377" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="U377" s="1">
-        <v>115.59894300000001</v>
-      </c>
-      <c r="V377" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="W377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="X377" s="1">
-        <v>95.588943</v>
-      </c>
-      <c r="Y377" s="1">
-        <v>90.598943000000006</v>
-      </c>
-    </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A378" t="s">
-        <v>37</v>
-      </c>
-      <c r="B378" s="1">
-        <v>93.098943000000006</v>
-      </c>
-      <c r="D378" s="1">
-        <v>92.598943000000006</v>
-      </c>
-      <c r="E378" s="1">
-        <v>92.598943000000006</v>
-      </c>
-      <c r="F378" s="1">
-        <v>93.098943000000006</v>
-      </c>
-      <c r="G378" s="1">
-        <v>93.098943000000006</v>
-      </c>
-      <c r="H378" s="1">
-        <v>93.098943000000006</v>
-      </c>
-      <c r="I378" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="J378" s="1">
-        <v>96.598943000000006</v>
-      </c>
-      <c r="K378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="L378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="M378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="N378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="O378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="P378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="Q378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="R378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="S378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="T378" s="1">
-        <v>98.598943000000006</v>
-      </c>
-      <c r="U378" s="1">
-        <v>98.598943000000006</v>
-      </c>
-      <c r="V378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="W378" s="1">
-        <v>97.598943000000006</v>
-      </c>
-      <c r="X378" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="Y378" s="1">
-        <v>93.098943000000006</v>
-      </c>
-    </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A379" t="s">
-        <v>38</v>
-      </c>
-      <c r="B379" s="1">
-        <v>96.598943000000006</v>
-      </c>
-      <c r="C379" s="1">
-        <v>93.498942999999997</v>
-      </c>
-      <c r="D379" s="1">
-        <v>93.498942999999997</v>
-      </c>
-      <c r="E379" s="1">
-        <v>93.498942999999997</v>
-      </c>
-      <c r="F379" s="1">
-        <v>93.498942999999997</v>
-      </c>
-      <c r="G379" s="1">
-        <v>93.498942999999997</v>
-      </c>
-      <c r="H379" s="1">
-        <v>96.598943000000006</v>
-      </c>
-      <c r="I379" s="1">
-        <v>96.598943000000006</v>
-      </c>
-      <c r="J379" s="1">
-        <v>97.098943000000006</v>
-      </c>
-      <c r="K379" s="1">
-        <v>97.098943000000006</v>
-      </c>
-      <c r="L379" s="1">
-        <v>97.098943000000006</v>
-      </c>
-      <c r="M379" s="1">
-        <v>97.498942999999997</v>
-      </c>
-      <c r="N379" s="1">
-        <v>97.098943000000006</v>
-      </c>
-      <c r="O379" s="1">
-        <v>97.098943000000006</v>
-      </c>
-      <c r="P379" s="1">
-        <v>97.098943000000006</v>
-      </c>
-      <c r="Q379" s="1">
-        <v>96.598943000000006</v>
-      </c>
-      <c r="R379" s="1">
-        <v>96.598943000000006</v>
-      </c>
-      <c r="S379" s="1">
-        <v>97.098943000000006</v>
-      </c>
-      <c r="T379" s="1">
-        <v>99.598943000000006</v>
-      </c>
-      <c r="U379" s="1">
-        <v>99.598943000000006</v>
-      </c>
-      <c r="V379" s="1">
-        <v>99.598943000000006</v>
-      </c>
-      <c r="W379" s="1">
-        <v>99.598943000000006</v>
-      </c>
-      <c r="X379" s="1">
-        <v>96.598943000000006</v>
-      </c>
-      <c r="Y379" s="1">
-        <v>96.598943000000006</v>
-      </c>
-    </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A380" t="s">
-        <v>39</v>
-      </c>
-      <c r="B380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="C380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="D380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="F380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="G380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="H380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="I380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="J380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="K380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="L380" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="M380" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="N380" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="O380" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="P380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="Q380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="R380" s="1">
-        <v>93.598943000000006</v>
-      </c>
-      <c r="S380" s="1">
-        <v>95.598943000000006</v>
-      </c>
-      <c r="T380" s="1">
-        <v>103.59894300000001</v>
-      </c>
-      <c r="U380" s="1">
-        <v>103.59894300000001</v>
-      </c>
-      <c r="V380" s="1">
-        <v>103.59894300000001</v>
-      </c>
-      <c r="W380" s="1">
-        <v>103.59894300000001</v>
-      </c>
-      <c r="X380" s="1">
-        <v>96.698943</v>
-      </c>
-      <c r="Y380" s="1">
-        <v>95.598943000000006</v>
-      </c>
-    </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A381" t="s">
-        <v>40</v>
-      </c>
-      <c r="B381" s="1">
-        <v>86.506943000000007</v>
-      </c>
-      <c r="C381" s="1">
-        <v>58.598942999999998</v>
-      </c>
-      <c r="D381" s="1">
-        <v>58.598942999999998</v>
-      </c>
-      <c r="E381" s="1">
-        <v>58.598942999999998</v>
-      </c>
-      <c r="F381" s="1">
-        <v>66.598943000000006</v>
-      </c>
-      <c r="G381" s="1">
-        <v>75.598943000000006</v>
-      </c>
-      <c r="H381" s="1">
-        <v>75.598943000000006</v>
-      </c>
-      <c r="I381" s="1">
-        <v>92.598943000000006</v>
-      </c>
-      <c r="J381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="K381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="L381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="M381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="N381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="O381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="P381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="Q381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="R381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="S381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="T381" s="1">
-        <v>103.698943</v>
-      </c>
-      <c r="U381" s="1">
-        <v>103.698943</v>
-      </c>
-      <c r="V381" s="1">
-        <v>103.698943</v>
-      </c>
-      <c r="W381" s="1">
-        <v>103.498943</v>
-      </c>
-      <c r="X381" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="Y381" s="1">
-        <v>92.598943000000006</v>
-      </c>
-    </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A382" t="s">
-        <v>41</v>
-      </c>
-      <c r="B382" s="1">
-        <v>80.657943000000003</v>
-      </c>
-      <c r="C382" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="D382" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="E382" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="F382" s="1">
-        <v>80.598943000000006</v>
-      </c>
-      <c r="G382" s="1">
-        <v>80.657943000000003</v>
-      </c>
-      <c r="H382" s="1">
-        <v>85.598943000000006</v>
-      </c>
-      <c r="I382" s="1">
-        <v>85.598943000000006</v>
-      </c>
-      <c r="J382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="K382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="L382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="M382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="N382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="O382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="P382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="Q382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="R382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="S382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="T382" s="1">
-        <v>103.498943</v>
-      </c>
-      <c r="U382" s="1">
-        <v>105.59894300000001</v>
-      </c>
-      <c r="V382" s="1">
-        <v>103.498943</v>
-      </c>
-      <c r="W382" s="1">
-        <v>102.59894300000001</v>
-      </c>
-      <c r="X382" s="1">
-        <v>85.598943000000006</v>
-      </c>
-      <c r="Y382" s="1">
-        <v>80.657943000000003</v>
       </c>
     </row>
   </sheetData>
@@ -30879,6 +29805,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010081F15821DEA74440826E0ABE6ED0431E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7e9496f45e65ed9a2f15ea6e66860ba1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1053b607-01f4-49d3-996a-42706195cb59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65b945c2a5fc5063e2f35c66e1076b14" ns2:_="">
     <xsd:import namespace="1053b607-01f4-49d3-996a-42706195cb59"/>
@@ -31014,15 +29949,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -31033,6 +29959,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{200B7D39-0C16-4C0F-84A7-04CE739498AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F060747-D44A-40B0-982D-CE92C15E860C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31050,14 +29984,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{200B7D39-0C16-4C0F-84A7-04CE739498AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BA4815D-B89B-478F-9D0F-9ABC0E40E3E2}">
   <ds:schemaRefs>
